--- a/Examples/Data/Destination/Spreadsheet Reports/Scatter Chart_XML Report.xlsx
+++ b/Examples/Data/Destination/Spreadsheet Reports/Scatter Chart_XML Report.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,12 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2015 Aspose Pty Ltd.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +48,14 @@
       <sz val="9"/>
       <color theme="1" tint="0.35"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -88,8 +101,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -264,27 +281,39 @@
           </c:dLbls>
           <c:xVal>
             <c:numLit>
-              <c:ptCount val="1"/>
+              <c:ptCount val="3"/>
               <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="1">
                 <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
           <c:yVal>
             <c:numLit>
-              <c:ptCount val="1"/>
+              <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>1355</c:v>
+                <c:v>750</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>250</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39903442"/>
-        <c:axId val="23586666"/>
+        <c:axId val="13869071"/>
+        <c:axId val="57712780"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39903442"/>
+        <c:axId val="13869071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,12 +366,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23586666"/>
+        <c:crossAx val="57712780"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23586666"/>
+        <c:axId val="57712780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39903442"/>
+        <c:crossAx val="13869071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1293,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1304,4 +1333,24 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="5" ht="23.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>